--- a/medicine/Enfance/Fais_dodo_(chanson)/Fais_dodo_(chanson).xlsx
+++ b/medicine/Enfance/Fais_dodo_(chanson)/Fais_dodo_(chanson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fais dodo est une berceuse enfantine en langue française dont l'auteur est inconnu et est dans le domaine public.
@@ -513,7 +525,9 @@
           <t>Paroles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fais dodo Colas mon p'tit frère, 
@@ -560,7 +574,9 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La lecture audio n'est pas prise en charge dans votre navigateur. Vous pouvez télécharger le fichier audio.
 Variante : 
@@ -592,9 +608,11 @@
           <t>Expressions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans cette comptine, il y a quelques expressions infantiles comme le "lolo", qui signifie le lait ou le sein maternel ou simplement à manger[1], ainsi que "faire dodo" expression très connue signifiant dormir.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette comptine, il y a quelques expressions infantiles comme le "lolo", qui signifie le lait ou le sein maternel ou simplement à manger, ainsi que "faire dodo" expression très connue signifiant dormir.
 </t>
         </is>
       </c>
